--- a/Backend/Model Metrics/metrics_rfc_CAP_rrt.xlsx
+++ b/Backend/Model Metrics/metrics_rfc_CAP_rrt.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.8841121495327103</v>
       </c>
     </row>
     <row r="3">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8076923076923077</v>
+        <v>0.8879310344827587</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7916666666666666</v>
+        <v>0.1397058823529412</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.75</v>
+        <v>0.9925053533190579</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8520710059171598</v>
+        <v>0.8923519009725907</v>
       </c>
     </row>
   </sheetData>
